--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>storyText</t>
   </si>
@@ -54,7 +54,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">omas got to </t>
+      <t xml:space="preserve">omas, dreading the conversation he was about to have, got to </t>
     </r>
     <r>
       <rPr>
@@ -73,23 +73,26 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> early, dreading the conversation he was about to have.</t>
+      <t xml:space="preserve"> early.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">The restaurant had a kitschy charm and was reminiscent of a diner from the 70’s. </t>
   </si>
   <si>
-    <t>A bell chimed as the door swung open, and Sadie entered to find him deep in thought on a bench by the door.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thomas jumped up and gave her a side hug. </t>
+    <t>A bell chimed as the door swung open and Sadie entered to find Thomas deep in thought on a bench by the door.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He jumped up and gave her a side hug. </t>
   </si>
   <si>
     <t>“How was your day?” he asked.</t>
   </si>
   <si>
-    <t>She clung onto him, “It was okay. I missed you today.”</t>
+    <t>She clung onto him, “It was okay.</t>
+  </si>
+  <si>
+    <t>I missed you today.”</t>
   </si>
   <si>
     <t>He looked at the hostess coming toward them.</t>
@@ -137,13 +140,13 @@
     <t>“Tell me about your day!” Sadie sang as Thomas sat down.</t>
   </si>
   <si>
-    <t>He looked at her silently, pulling his hand slowly from hers.</t>
+    <t>He looked at her silently and pulled his hand slowly from hers.</t>
   </si>
   <si>
     <t>Sadie gave him a puzzled look.</t>
   </si>
   <si>
-    <t xml:space="preserve">Thomas looked away, and took a deep breath. </t>
+    <t xml:space="preserve">Thomas looked away and took a deep breath. </t>
   </si>
   <si>
     <t xml:space="preserve">Sadie asked, “What’s wrong?” </t>
@@ -280,7 +283,7 @@
     <t>Thomas replied, “I want to take a break for awhile.</t>
   </si>
   <si>
-    <t>You know, take space to figure out what I’m supposed to be doing.”</t>
+    <t>You know, have space to figure out what I’m supposed to be doing.”</t>
   </si>
   <si>
     <r>
@@ -390,7 +393,7 @@
     <t>Sadie's heels clacked loudly against the black and white linoleum, and the bell above the door jingled cheerfully as the door closed behind her.</t>
   </si>
   <si>
-    <t xml:space="preserve">Thomas sat there for awhile, in shock at how quickly everything transpired. </t>
+    <t xml:space="preserve">Thomas sat there for awhile in shock at how quickly everything transpired. </t>
   </si>
   <si>
     <t>He grabbed his burger, and took a bite of it, but it tasted dry and fishy.</t>
@@ -1697,7 +1700,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1728,7 +1731,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="92.25" customHeight="1">
+    <row r="2" ht="80.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>5</v>
       </c>
@@ -1758,7 +1761,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="223.8" customHeight="1">
+    <row r="4" ht="205.8" customHeight="1">
       <c r="A4" t="s" s="12">
         <v>7</v>
       </c>
@@ -1773,7 +1776,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="97.8" customHeight="1">
+    <row r="5" ht="79.8" customHeight="1">
       <c r="A5" t="s" s="12">
         <v>8</v>
       </c>
@@ -1803,7 +1806,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="97.8" customHeight="1">
+    <row r="7" ht="61.8" customHeight="1">
       <c r="A7" t="s" s="12">
         <v>10</v>
       </c>
@@ -1818,7 +1821,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="115.8" customHeight="1">
+    <row r="8" ht="43.8" customHeight="1">
       <c r="A8" t="s" s="12">
         <v>11</v>
       </c>
@@ -1848,7 +1851,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="187.8" customHeight="1">
+    <row r="10" ht="115.8" customHeight="1">
       <c r="A10" t="s" s="12">
         <v>13</v>
       </c>
@@ -1858,30 +1861,30 @@
       <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
-        <v>9</v>
-      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="133.8" customHeight="1">
-      <c r="A11" t="s" s="8">
+    <row r="11" ht="187.8" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>14</v>
       </c>
       <c r="B11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10">
+        <v>9</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="79.8" customHeight="1">
-      <c r="A12" t="s" s="12">
+    <row r="12" ht="133.8" customHeight="1">
+      <c r="A12" t="s" s="8">
         <v>15</v>
       </c>
       <c r="B12" s="9">
@@ -1895,7 +1898,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="169.8" customHeight="1">
+    <row r="13" ht="79.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>16</v>
       </c>
@@ -1910,7 +1913,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="43.8" customHeight="1">
+    <row r="14" ht="169.8" customHeight="1">
       <c r="A14" t="s" s="12">
         <v>17</v>
       </c>
@@ -1925,7 +1928,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="61.8" customHeight="1">
+    <row r="15" ht="43.8" customHeight="1">
       <c r="A15" t="s" s="12">
         <v>18</v>
       </c>
@@ -1940,7 +1943,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="151.8" customHeight="1">
+    <row r="16" ht="61.8" customHeight="1">
       <c r="A16" t="s" s="12">
         <v>19</v>
       </c>
@@ -1955,7 +1958,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="115.8" customHeight="1">
+    <row r="17" ht="151.8" customHeight="1">
       <c r="A17" t="s" s="12">
         <v>20</v>
       </c>
@@ -1985,7 +1988,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="79.8" customHeight="1">
+    <row r="19" ht="115.8" customHeight="1">
       <c r="A19" t="s" s="12">
         <v>22</v>
       </c>
@@ -2000,7 +2003,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="97.8" customHeight="1">
+    <row r="20" ht="79.8" customHeight="1">
       <c r="A20" t="s" s="12">
         <v>23</v>
       </c>
@@ -2015,7 +2018,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="79.8" customHeight="1">
+    <row r="21" ht="97.8" customHeight="1">
       <c r="A21" t="s" s="12">
         <v>24</v>
       </c>
@@ -2030,7 +2033,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="61.8" customHeight="1">
+    <row r="22" ht="79.8" customHeight="1">
       <c r="A22" t="s" s="12">
         <v>25</v>
       </c>
@@ -2041,13 +2044,11 @@
         <v>1</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="10">
-        <v>22</v>
-      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="169.8" customHeight="1">
+    <row r="23" ht="61.8" customHeight="1">
       <c r="A23" t="s" s="12">
         <v>26</v>
       </c>
@@ -2055,14 +2056,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="10">
+        <v>22</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="187.8" customHeight="1">
+    <row r="24" ht="169.8" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>27</v>
       </c>
@@ -2077,7 +2080,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="97.8" customHeight="1">
+    <row r="25" ht="187.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>28</v>
       </c>
@@ -2107,7 +2110,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="169.8" customHeight="1">
+    <row r="27" ht="97.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>30</v>
       </c>
@@ -2117,29 +2120,29 @@
       <c r="C27" s="10">
         <v>2</v>
       </c>
-      <c r="D27" s="10">
-        <v>17</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="151.8" customHeight="1">
+    <row r="28" ht="169.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>31</v>
       </c>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="10">
+        <v>17</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="43.8" customHeight="1">
+    <row r="29" ht="151.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>32</v>
       </c>
@@ -2154,7 +2157,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="79.8" customHeight="1">
+    <row r="30" ht="43.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>33</v>
       </c>
@@ -2169,7 +2172,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="187.8" customHeight="1">
+    <row r="31" ht="79.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>34</v>
       </c>
@@ -2199,7 +2202,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="97.8" customHeight="1">
+    <row r="33" ht="187.8" customHeight="1">
       <c r="A33" t="s" s="12">
         <v>36</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="133.8" customHeight="1">
+    <row r="34" ht="97.8" customHeight="1">
       <c r="A34" t="s" s="12">
         <v>37</v>
       </c>
@@ -2229,7 +2232,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="97.8" customHeight="1">
+    <row r="35" ht="133.8" customHeight="1">
       <c r="A35" t="s" s="12">
         <v>38</v>
       </c>
@@ -2244,7 +2247,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="79.8" customHeight="1">
+    <row r="36" ht="97.8" customHeight="1">
       <c r="A36" t="s" s="12">
         <v>39</v>
       </c>
@@ -2259,7 +2262,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="97.8" customHeight="1">
+    <row r="37" ht="79.8" customHeight="1">
       <c r="A37" t="s" s="12">
         <v>40</v>
       </c>
@@ -2289,7 +2292,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="115.8" customHeight="1">
+    <row r="39" ht="97.8" customHeight="1">
       <c r="A39" t="s" s="12">
         <v>42</v>
       </c>
@@ -2300,13 +2303,11 @@
         <v>2</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="10">
-        <v>17</v>
-      </c>
+      <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="61.8" customHeight="1">
+    <row r="40" ht="115.8" customHeight="1">
       <c r="A40" t="s" s="12">
         <v>43</v>
       </c>
@@ -2314,14 +2315,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="10">
+        <v>17</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" ht="223.8" customHeight="1">
+    <row r="41" ht="61.8" customHeight="1">
       <c r="A41" t="s" s="12">
         <v>44</v>
       </c>
@@ -2336,7 +2339,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" ht="61.8" customHeight="1">
+    <row r="42" ht="223.8" customHeight="1">
       <c r="A42" t="s" s="12">
         <v>45</v>
       </c>
@@ -2351,7 +2354,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" ht="43.8" customHeight="1">
+    <row r="43" ht="61.8" customHeight="1">
       <c r="A43" t="s" s="12">
         <v>46</v>
       </c>
@@ -2368,7 +2371,7 @@
     </row>
     <row r="44" ht="43.8" customHeight="1">
       <c r="A44" t="s" s="12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="9">
         <v>3</v>
@@ -2396,7 +2399,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" ht="115.8" customHeight="1">
+    <row r="46" ht="43.8" customHeight="1">
       <c r="A46" t="s" s="12">
         <v>48</v>
       </c>
@@ -2411,7 +2414,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" ht="151.8" customHeight="1">
+    <row r="47" ht="115.8" customHeight="1">
       <c r="A47" t="s" s="12">
         <v>49</v>
       </c>
@@ -2421,29 +2424,29 @@
       <c r="C47" s="10">
         <v>3</v>
       </c>
-      <c r="D47" s="10">
-        <v>20</v>
-      </c>
+      <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" ht="169.8" customHeight="1">
+    <row r="48" ht="151.8" customHeight="1">
       <c r="A48" t="s" s="12">
         <v>50</v>
       </c>
       <c r="B48" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="10">
         <v>3</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="10">
+        <v>20</v>
+      </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" ht="97.8" customHeight="1">
+    <row r="49" ht="169.8" customHeight="1">
       <c r="A49" t="s" s="12">
         <v>51</v>
       </c>
@@ -2488,7 +2491,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" ht="169.8" customHeight="1">
+    <row r="52" ht="97.8" customHeight="1">
       <c r="A52" t="s" s="12">
         <v>54</v>
       </c>
@@ -2503,7 +2506,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" ht="97.8" customHeight="1">
+    <row r="53" ht="169.8" customHeight="1">
       <c r="A53" t="s" s="12">
         <v>55</v>
       </c>
@@ -2518,7 +2521,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" ht="79.8" customHeight="1">
+    <row r="54" ht="97.8" customHeight="1">
       <c r="A54" t="s" s="12">
         <v>56</v>
       </c>
@@ -2533,7 +2536,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" ht="97.8" customHeight="1">
+    <row r="55" ht="79.8" customHeight="1">
       <c r="A55" t="s" s="12">
         <v>57</v>
       </c>
@@ -2548,7 +2551,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" ht="43.8" customHeight="1">
+    <row r="56" ht="97.8" customHeight="1">
       <c r="A56" t="s" s="12">
         <v>58</v>
       </c>
@@ -2559,13 +2562,11 @@
         <v>3</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="10">
-        <v>17</v>
-      </c>
+      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" ht="223.8" customHeight="1">
+    <row r="57" ht="43.8" customHeight="1">
       <c r="A57" t="s" s="12">
         <v>59</v>
       </c>
@@ -2573,14 +2574,16 @@
         <v>4</v>
       </c>
       <c r="C57" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="10">
+        <v>17</v>
+      </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" ht="277.8" customHeight="1">
+    <row r="58" ht="223.8" customHeight="1">
       <c r="A58" t="s" s="12">
         <v>60</v>
       </c>
@@ -2595,7 +2598,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" ht="133.8" customHeight="1">
+    <row r="59" ht="277.8" customHeight="1">
       <c r="A59" t="s" s="12">
         <v>61</v>
       </c>
@@ -2610,7 +2613,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" ht="115.8" customHeight="1">
+    <row r="60" ht="133.8" customHeight="1">
       <c r="A60" t="s" s="12">
         <v>62</v>
       </c>
@@ -2625,7 +2628,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" ht="205.8" customHeight="1">
+    <row r="61" ht="115.8" customHeight="1">
       <c r="A61" t="s" s="12">
         <v>63</v>
       </c>
@@ -2635,14 +2638,29 @@
       <c r="C61" s="10">
         <v>4</v>
       </c>
-      <c r="D61" s="10">
-        <v>13</v>
-      </c>
-      <c r="E61" s="10">
-        <v>5</v>
-      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
+    </row>
+    <row r="62" ht="205.8" customHeight="1">
+      <c r="A62" t="s" s="12">
+        <v>64</v>
+      </c>
+      <c r="B62" s="9">
+        <v>4</v>
+      </c>
+      <c r="C62" s="10">
+        <v>4</v>
+      </c>
+      <c r="D62" s="10">
+        <v>13</v>
+      </c>
+      <c r="E62" s="10">
+        <v>5</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>storyText</t>
   </si>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">He jumped up and gave her a side hug. </t>
   </si>
   <si>
-    <t>“How was your day?” he asked.</t>
+    <t>“How was your day?”, he asked.</t>
   </si>
   <si>
     <t>She clung onto him, “It was okay.</t>
@@ -95,13 +95,13 @@
     <t>I missed you today.”</t>
   </si>
   <si>
-    <t>He looked at the hostess coming toward them.</t>
-  </si>
-  <si>
-    <t>“Can we have a table in the back?” Thomas asked.</t>
-  </si>
-  <si>
-    <t>She shrugged and, as she loudly popped her bubblegum, replied, "Sure honey, this way."</t>
+    <t>He looked at the hostess coming towards them.</t>
+  </si>
+  <si>
+    <t>“Can we have a table in the back?”, Thomas asked.</t>
+  </si>
+  <si>
+    <t>She shrugged and, as she loudly popped her bubblegum, replied, “Sure, honey, this way."</t>
   </si>
   <si>
     <r>
@@ -118,11 +118,11 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">he led them to the back of the restaurant, where there were dimly lit tables. </t>
+      <t xml:space="preserve">he led them to the back of the restaurant where there were dimly lit tables. </t>
     </r>
   </si>
   <si>
-    <t>“Is this alright?” the hostess asked.</t>
+    <t>“Is this alright?”, the hostess asked.</t>
   </si>
   <si>
     <t>Thomas cleared his throat and tried not to grimace at the stained fabric that lined the booth.</t>
@@ -137,7 +137,7 @@
     <t>Sadie slipped into the cushioned seat and grabbed Thomas’ hand.</t>
   </si>
   <si>
-    <t>“Tell me about your day!” Sadie sang as Thomas sat down.</t>
+    <t>“Tell me about your day!”, Sadie sang as Thomas sat down.</t>
   </si>
   <si>
     <t>He looked at her silently and pulled his hand slowly from hers.</t>
@@ -161,27 +161,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>“</t>
+      <t>“Sadie, I’ve been thinking, and I need to figure out some stuff… on my own.”</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>ook, Sadie, I’ve been thinking, and I need to figure out some stuff… on my own.”</t>
-    </r>
-  </si>
-  <si>
-    <t>Sadie’s mouth popped open for a moment, then she swallowed and shifted back in her seat.</t>
+  </si>
+  <si>
+    <t>Sadie’s mouth popped open for a moment.</t>
+  </si>
+  <si>
+    <t>Then she swallowed and shifted back in her seat.</t>
   </si>
   <si>
     <t>“Things have been really picking up at work.</t>
@@ -217,10 +204,18 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>“Hello you two!</t>
+      <t>“Hello you two!”, the waiter said.</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>“</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -271,13 +266,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Once she agreed to get that, he walked away. </t>
+    <t xml:space="preserve">Once she agreed to get that, he walked away. </t>
   </si>
   <si>
     <t xml:space="preserve">Sadie and Thomas looked at each other. </t>
   </si>
   <si>
-    <t xml:space="preserve">“So what are you saying?” Sadie asked. </t>
+    <t xml:space="preserve">“So what are you saying?”, Sadie asked. </t>
   </si>
   <si>
     <t>Thomas replied, “I want to take a break for awhile.</t>
@@ -304,7 +299,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Nevertheless, people sitting at the adjacent table looked over, and then averted their gaze as they realized what was happening. </t>
+    <t xml:space="preserve">Nevertheless, people sitting at the adjacent table looked over and quickly averted their gaze as they realized what was happening. </t>
   </si>
   <si>
     <t>“Is this really what you want?</t>
@@ -336,26 +331,29 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>t that moment, the waiter arrived with the burger and reuben, and set them on the table.</t>
+      <t>t that moment, the waiter arrived with the burger and reuben and set them on the table.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> “Is there anything else I can get for you two?</t>
-  </si>
-  <si>
-    <t>Will you be getting desserts tonight?” he asked.</t>
-  </si>
-  <si>
-    <t>“Oh no, we’re good, thanks.” Thomas said.</t>
-  </si>
-  <si>
-    <t>Once the waiter had quickly walked away, Thomas sighed and said, “Sadie, I’m sorry.</t>
+    <t>“Is there anything else I can get for you two?</t>
+  </si>
+  <si>
+    <t>Will you be getting dessert tonight?”, he asked.</t>
+  </si>
+  <si>
+    <t>“Oh no, we’re good, thanks,” Thomas said.</t>
+  </si>
+  <si>
+    <t>Once the waiter had walked away still oblivious to the situation, Thomas sighed and said, “Sadie, I’m sorry.</t>
   </si>
   <si>
     <t>You are so great, and I love hanging out with you.</t>
   </si>
   <si>
-    <t>But I need some time, I’m so sorry.”</t>
+    <t>But I need some time.</t>
+  </si>
+  <si>
+    <t>I’m so sorry.”</t>
   </si>
   <si>
     <t>He grabbed her hand, and she pulled it out of his.</t>
@@ -386,7 +384,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>he stood up, grabbed half the reuben, and shook it at him as she growled, “Don’t follow me and don’t talk to me anymore.”</t>
+      <t>he stood up, grabbed half of the reuben and shook it at him as she growled, “Don’t follow me, and don’t talk to me anymore!”</t>
     </r>
   </si>
   <si>
@@ -396,10 +394,10 @@
     <t xml:space="preserve">Thomas sat there for awhile in shock at how quickly everything transpired. </t>
   </si>
   <si>
-    <t>He grabbed his burger, and took a bite of it, but it tasted dry and fishy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He dropped it back on his plate, wondering if the restaurant was responsible for the foul taste in his mouth. </t>
+    <t>He grabbed his burger and took a bite of it, creating a dry and fishy taste in his mouth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He dropped it back on his plate and wondered if the restaurant was responsible for the foul taste. </t>
   </si>
 </sst>
 </file>
@@ -578,7 +576,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -617,6 +615,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,7 +1701,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -2065,7 +2066,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="169.8" customHeight="1">
+    <row r="24" ht="151.8" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>27</v>
       </c>
@@ -2080,7 +2081,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="187.8" customHeight="1">
+    <row r="25" ht="97.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>28</v>
       </c>
@@ -2125,7 +2126,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="169.8" customHeight="1">
+    <row r="28" ht="97.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>31</v>
       </c>
@@ -2135,29 +2136,29 @@
       <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="D28" s="10">
-        <v>17</v>
-      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="151.8" customHeight="1">
+    <row r="29" ht="169.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>32</v>
       </c>
       <c r="B29" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="10">
         <v>2</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10">
+        <v>17</v>
+      </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="43.8" customHeight="1">
+    <row r="30" ht="151.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>33</v>
       </c>
@@ -2172,7 +2173,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="79.8" customHeight="1">
+    <row r="31" ht="61.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>34</v>
       </c>
@@ -2187,7 +2188,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="187.8" customHeight="1">
+    <row r="32" ht="79.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>35</v>
       </c>
@@ -2217,7 +2218,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="97.8" customHeight="1">
+    <row r="34" ht="187.8" customHeight="1">
       <c r="A34" t="s" s="12">
         <v>37</v>
       </c>
@@ -2232,7 +2233,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="133.8" customHeight="1">
+    <row r="35" ht="97.8" customHeight="1">
       <c r="A35" t="s" s="12">
         <v>38</v>
       </c>
@@ -2247,7 +2248,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="97.8" customHeight="1">
+    <row r="36" ht="133.8" customHeight="1">
       <c r="A36" t="s" s="12">
         <v>39</v>
       </c>
@@ -2262,7 +2263,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="79.8" customHeight="1">
+    <row r="37" ht="97.8" customHeight="1">
       <c r="A37" t="s" s="12">
         <v>40</v>
       </c>
@@ -2277,7 +2278,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="97.8" customHeight="1">
+    <row r="38" ht="79.8" customHeight="1">
       <c r="A38" t="s" s="12">
         <v>41</v>
       </c>
@@ -2307,7 +2308,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="115.8" customHeight="1">
+    <row r="40" ht="97.8" customHeight="1">
       <c r="A40" t="s" s="12">
         <v>43</v>
       </c>
@@ -2318,13 +2319,11 @@
         <v>2</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="10">
-        <v>17</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" ht="61.8" customHeight="1">
+    <row r="41" ht="115.8" customHeight="1">
       <c r="A41" t="s" s="12">
         <v>44</v>
       </c>
@@ -2332,14 +2331,16 @@
         <v>3</v>
       </c>
       <c r="C41" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="10">
+        <v>17</v>
+      </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" ht="223.8" customHeight="1">
+    <row r="42" ht="61.8" customHeight="1">
       <c r="A42" t="s" s="12">
         <v>45</v>
       </c>
@@ -2354,7 +2355,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" ht="61.8" customHeight="1">
+    <row r="43" ht="241.8" customHeight="1">
       <c r="A43" t="s" s="12">
         <v>46</v>
       </c>
@@ -2369,7 +2370,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" ht="43.8" customHeight="1">
+    <row r="44" ht="61.8" customHeight="1">
       <c r="A44" t="s" s="12">
         <v>47</v>
       </c>
@@ -2386,7 +2387,7 @@
     </row>
     <row r="45" ht="43.8" customHeight="1">
       <c r="A45" t="s" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="9">
         <v>3</v>
@@ -2414,7 +2415,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" ht="115.8" customHeight="1">
+    <row r="47" ht="43.8" customHeight="1">
       <c r="A47" t="s" s="12">
         <v>49</v>
       </c>
@@ -2429,7 +2430,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" ht="151.8" customHeight="1">
+    <row r="48" ht="115.8" customHeight="1">
       <c r="A48" t="s" s="12">
         <v>50</v>
       </c>
@@ -2439,29 +2440,29 @@
       <c r="C48" s="10">
         <v>3</v>
       </c>
-      <c r="D48" s="10">
-        <v>20</v>
-      </c>
+      <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" ht="169.8" customHeight="1">
+    <row r="49" ht="151.8" customHeight="1">
       <c r="A49" t="s" s="12">
         <v>51</v>
       </c>
       <c r="B49" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="10">
         <v>3</v>
       </c>
-      <c r="D49" s="11"/>
+      <c r="D49" s="10">
+        <v>20</v>
+      </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" ht="97.8" customHeight="1">
+    <row r="50" ht="169.8" customHeight="1">
       <c r="A50" t="s" s="12">
         <v>52</v>
       </c>
@@ -2506,7 +2507,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" ht="169.8" customHeight="1">
+    <row r="53" ht="97.8" customHeight="1">
       <c r="A53" t="s" s="12">
         <v>55</v>
       </c>
@@ -2521,7 +2522,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" ht="97.8" customHeight="1">
+    <row r="54" ht="205.8" customHeight="1">
       <c r="A54" t="s" s="12">
         <v>56</v>
       </c>
@@ -2536,7 +2537,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" ht="79.8" customHeight="1">
+    <row r="55" ht="97.8" customHeight="1">
       <c r="A55" t="s" s="12">
         <v>57</v>
       </c>
@@ -2551,7 +2552,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" ht="97.8" customHeight="1">
+    <row r="56" ht="43.8" customHeight="1">
       <c r="A56" t="s" s="12">
         <v>58</v>
       </c>
@@ -2570,20 +2571,14 @@
       <c r="A57" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="B57" s="9">
-        <v>4</v>
-      </c>
-      <c r="C57" s="10">
-        <v>3</v>
-      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="10">
-        <v>17</v>
-      </c>
+      <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" ht="223.8" customHeight="1">
+    <row r="58" ht="97.8" customHeight="1">
       <c r="A58" t="s" s="12">
         <v>60</v>
       </c>
@@ -2591,14 +2586,14 @@
         <v>4</v>
       </c>
       <c r="C58" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" ht="277.8" customHeight="1">
+    <row r="59" ht="43.8" customHeight="1">
       <c r="A59" t="s" s="12">
         <v>61</v>
       </c>
@@ -2606,14 +2601,16 @@
         <v>4</v>
       </c>
       <c r="C59" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="E59" s="10">
+        <v>17</v>
+      </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" ht="133.8" customHeight="1">
+    <row r="60" ht="223.8" customHeight="1">
       <c r="A60" t="s" s="12">
         <v>62</v>
       </c>
@@ -2628,7 +2625,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" ht="115.8" customHeight="1">
+    <row r="61" ht="277.8" customHeight="1">
       <c r="A61" t="s" s="12">
         <v>63</v>
       </c>
@@ -2643,7 +2640,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" ht="205.8" customHeight="1">
+    <row r="62" ht="133.8" customHeight="1">
       <c r="A62" t="s" s="12">
         <v>64</v>
       </c>
@@ -2653,14 +2650,44 @@
       <c r="C62" s="10">
         <v>4</v>
       </c>
-      <c r="D62" s="10">
-        <v>13</v>
-      </c>
-      <c r="E62" s="10">
-        <v>5</v>
-      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
+    </row>
+    <row r="63" ht="151.8" customHeight="1">
+      <c r="A63" t="s" s="12">
+        <v>65</v>
+      </c>
+      <c r="B63" s="9">
+        <v>4</v>
+      </c>
+      <c r="C63" s="10">
+        <v>4</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" ht="205.8" customHeight="1">
+      <c r="A64" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="B64" s="9">
+        <v>4</v>
+      </c>
+      <c r="C64" s="10">
+        <v>4</v>
+      </c>
+      <c r="D64" s="10">
+        <v>13</v>
+      </c>
+      <c r="E64" s="10">
+        <v>5</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -101,7 +101,7 @@
     <t>“Can we have a table in the back?”, Thomas asked.</t>
   </si>
   <si>
-    <t>She shrugged and, as she loudly popped her bubblegum, replied, “Sure, honey, this way."</t>
+    <t>She shrugged and, as she loudly popped her bubblegum, replied, “Sure, honey, this way.”</t>
   </si>
   <si>
     <r>
@@ -131,7 +131,7 @@
     <t>“This is great.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thank you,” Thomas said.</t>
+    <t>Thank you,” Thomas said.</t>
   </si>
   <si>
     <t>Sadie slipped into the cushioned seat and grabbed Thomas’ hand.</t>
@@ -576,7 +576,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -615,9 +615,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2571,8 +2568,12 @@
       <c r="A57" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="9">
+        <v>4</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3</v>
+      </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>

--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>storyText</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>socialEventSize</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -411,7 +414,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -614,7 +617,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1706,7 +1709,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1726,12 +1735,14 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="80.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1741,12 +1752,14 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6">
+        <v>11</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1761,7 +1774,7 @@
     </row>
     <row r="4" ht="205.8" customHeight="1">
       <c r="A4" t="s" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1776,7 +1789,7 @@
     </row>
     <row r="5" ht="79.8" customHeight="1">
       <c r="A5" t="s" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1791,7 +1804,7 @@
     </row>
     <row r="6" ht="61.8" customHeight="1">
       <c r="A6" t="s" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1806,7 +1819,7 @@
     </row>
     <row r="7" ht="61.8" customHeight="1">
       <c r="A7" t="s" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1821,7 +1834,7 @@
     </row>
     <row r="8" ht="43.8" customHeight="1">
       <c r="A8" t="s" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -1836,7 +1849,7 @@
     </row>
     <row r="9" ht="115.8" customHeight="1">
       <c r="A9" t="s" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -1851,7 +1864,7 @@
     </row>
     <row r="10" ht="115.8" customHeight="1">
       <c r="A10" t="s" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -1866,7 +1879,7 @@
     </row>
     <row r="11" ht="187.8" customHeight="1">
       <c r="A11" t="s" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -1883,7 +1896,7 @@
     </row>
     <row r="12" ht="133.8" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1898,7 +1911,7 @@
     </row>
     <row r="13" ht="79.8" customHeight="1">
       <c r="A13" t="s" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -1913,7 +1926,7 @@
     </row>
     <row r="14" ht="169.8" customHeight="1">
       <c r="A14" t="s" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1928,7 +1941,7 @@
     </row>
     <row r="15" ht="43.8" customHeight="1">
       <c r="A15" t="s" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
@@ -1943,7 +1956,7 @@
     </row>
     <row r="16" ht="61.8" customHeight="1">
       <c r="A16" t="s" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -1958,7 +1971,7 @@
     </row>
     <row r="17" ht="151.8" customHeight="1">
       <c r="A17" t="s" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
@@ -1973,7 +1986,7 @@
     </row>
     <row r="18" ht="115.8" customHeight="1">
       <c r="A18" t="s" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
@@ -1988,7 +2001,7 @@
     </row>
     <row r="19" ht="115.8" customHeight="1">
       <c r="A19" t="s" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="9">
         <v>2</v>
@@ -2003,7 +2016,7 @@
     </row>
     <row r="20" ht="79.8" customHeight="1">
       <c r="A20" t="s" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="9">
         <v>2</v>
@@ -2018,7 +2031,7 @@
     </row>
     <row r="21" ht="97.8" customHeight="1">
       <c r="A21" t="s" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="9">
         <v>2</v>
@@ -2033,7 +2046,7 @@
     </row>
     <row r="22" ht="79.8" customHeight="1">
       <c r="A22" t="s" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="9">
         <v>2</v>
@@ -2048,7 +2061,7 @@
     </row>
     <row r="23" ht="61.8" customHeight="1">
       <c r="A23" t="s" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="9">
         <v>2</v>
@@ -2065,7 +2078,7 @@
     </row>
     <row r="24" ht="151.8" customHeight="1">
       <c r="A24" t="s" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="9">
         <v>2</v>
@@ -2080,7 +2093,7 @@
     </row>
     <row r="25" ht="97.8" customHeight="1">
       <c r="A25" t="s" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="9">
         <v>2</v>
@@ -2095,7 +2108,7 @@
     </row>
     <row r="26" ht="97.8" customHeight="1">
       <c r="A26" t="s" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="9">
         <v>2</v>
@@ -2110,7 +2123,7 @@
     </row>
     <row r="27" ht="97.8" customHeight="1">
       <c r="A27" t="s" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="9">
         <v>2</v>
@@ -2125,7 +2138,7 @@
     </row>
     <row r="28" ht="97.8" customHeight="1">
       <c r="A28" t="s" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="9">
         <v>2</v>
@@ -2140,7 +2153,7 @@
     </row>
     <row r="29" ht="169.8" customHeight="1">
       <c r="A29" t="s" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="9">
         <v>2</v>
@@ -2157,7 +2170,7 @@
     </row>
     <row r="30" ht="151.8" customHeight="1">
       <c r="A30" t="s" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="9">
         <v>3</v>
@@ -2172,7 +2185,7 @@
     </row>
     <row r="31" ht="61.8" customHeight="1">
       <c r="A31" t="s" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="9">
         <v>3</v>
@@ -2187,7 +2200,7 @@
     </row>
     <row r="32" ht="79.8" customHeight="1">
       <c r="A32" t="s" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="9">
         <v>3</v>
@@ -2202,7 +2215,7 @@
     </row>
     <row r="33" ht="187.8" customHeight="1">
       <c r="A33" t="s" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="9">
         <v>3</v>
@@ -2217,7 +2230,7 @@
     </row>
     <row r="34" ht="187.8" customHeight="1">
       <c r="A34" t="s" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="9">
         <v>3</v>
@@ -2232,7 +2245,7 @@
     </row>
     <row r="35" ht="97.8" customHeight="1">
       <c r="A35" t="s" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="9">
         <v>3</v>
@@ -2247,7 +2260,7 @@
     </row>
     <row r="36" ht="133.8" customHeight="1">
       <c r="A36" t="s" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="9">
         <v>3</v>
@@ -2262,7 +2275,7 @@
     </row>
     <row r="37" ht="97.8" customHeight="1">
       <c r="A37" t="s" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="9">
         <v>3</v>
@@ -2277,7 +2290,7 @@
     </row>
     <row r="38" ht="79.8" customHeight="1">
       <c r="A38" t="s" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="9">
         <v>3</v>
@@ -2292,7 +2305,7 @@
     </row>
     <row r="39" ht="97.8" customHeight="1">
       <c r="A39" t="s" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="9">
         <v>3</v>
@@ -2307,7 +2320,7 @@
     </row>
     <row r="40" ht="97.8" customHeight="1">
       <c r="A40" t="s" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="9">
         <v>3</v>
@@ -2322,7 +2335,7 @@
     </row>
     <row r="41" ht="115.8" customHeight="1">
       <c r="A41" t="s" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="9">
         <v>3</v>
@@ -2339,7 +2352,7 @@
     </row>
     <row r="42" ht="61.8" customHeight="1">
       <c r="A42" t="s" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="9">
         <v>3</v>
@@ -2354,7 +2367,7 @@
     </row>
     <row r="43" ht="241.8" customHeight="1">
       <c r="A43" t="s" s="12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="9">
         <v>3</v>
@@ -2369,7 +2382,7 @@
     </row>
     <row r="44" ht="61.8" customHeight="1">
       <c r="A44" t="s" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="9">
         <v>3</v>
@@ -2384,7 +2397,7 @@
     </row>
     <row r="45" ht="43.8" customHeight="1">
       <c r="A45" t="s" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="9">
         <v>3</v>
@@ -2399,7 +2412,7 @@
     </row>
     <row r="46" ht="43.8" customHeight="1">
       <c r="A46" t="s" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="9">
         <v>3</v>
@@ -2414,7 +2427,7 @@
     </row>
     <row r="47" ht="43.8" customHeight="1">
       <c r="A47" t="s" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="9">
         <v>3</v>
@@ -2429,7 +2442,7 @@
     </row>
     <row r="48" ht="115.8" customHeight="1">
       <c r="A48" t="s" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="9">
         <v>3</v>
@@ -2444,7 +2457,7 @@
     </row>
     <row r="49" ht="151.8" customHeight="1">
       <c r="A49" t="s" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="9">
         <v>3</v>
@@ -2461,7 +2474,7 @@
     </row>
     <row r="50" ht="169.8" customHeight="1">
       <c r="A50" t="s" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="9">
         <v>4</v>
@@ -2476,7 +2489,7 @@
     </row>
     <row r="51" ht="97.8" customHeight="1">
       <c r="A51" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" s="9">
         <v>4</v>
@@ -2491,7 +2504,7 @@
     </row>
     <row r="52" ht="97.8" customHeight="1">
       <c r="A52" t="s" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="9">
         <v>4</v>
@@ -2506,7 +2519,7 @@
     </row>
     <row r="53" ht="97.8" customHeight="1">
       <c r="A53" t="s" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" s="9">
         <v>4</v>
@@ -2521,7 +2534,7 @@
     </row>
     <row r="54" ht="205.8" customHeight="1">
       <c r="A54" t="s" s="12">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" s="9">
         <v>4</v>
@@ -2536,7 +2549,7 @@
     </row>
     <row r="55" ht="97.8" customHeight="1">
       <c r="A55" t="s" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" s="9">
         <v>4</v>
@@ -2551,7 +2564,7 @@
     </row>
     <row r="56" ht="43.8" customHeight="1">
       <c r="A56" t="s" s="12">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" s="9">
         <v>4</v>
@@ -2566,7 +2579,7 @@
     </row>
     <row r="57" ht="43.8" customHeight="1">
       <c r="A57" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" s="9">
         <v>4</v>
@@ -2581,7 +2594,7 @@
     </row>
     <row r="58" ht="97.8" customHeight="1">
       <c r="A58" t="s" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" s="9">
         <v>4</v>
@@ -2596,7 +2609,7 @@
     </row>
     <row r="59" ht="43.8" customHeight="1">
       <c r="A59" t="s" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" s="9">
         <v>4</v>
@@ -2613,7 +2626,7 @@
     </row>
     <row r="60" ht="223.8" customHeight="1">
       <c r="A60" t="s" s="12">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" s="9">
         <v>4</v>
@@ -2628,7 +2641,7 @@
     </row>
     <row r="61" ht="277.8" customHeight="1">
       <c r="A61" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" s="9">
         <v>4</v>
@@ -2643,7 +2656,7 @@
     </row>
     <row r="62" ht="133.8" customHeight="1">
       <c r="A62" t="s" s="12">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" s="9">
         <v>4</v>
@@ -2658,7 +2671,7 @@
     </row>
     <row r="63" ht="151.8" customHeight="1">
       <c r="A63" t="s" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" s="9">
         <v>4</v>
@@ -2673,7 +2686,7 @@
     </row>
     <row r="64" ht="205.8" customHeight="1">
       <c r="A64" t="s" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" s="9">
         <v>4</v>

--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>storyText</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>story</t>
+  </si>
+  <si>
+    <t>socialAnswer</t>
+  </si>
+  <si>
+    <t>locationAnswer</t>
   </si>
   <si>
     <r>
@@ -80,28 +86,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The restaurant had a kitschy charm and was reminiscent of a diner from the 70’s. </t>
-  </si>
-  <si>
-    <t>A bell chimed as the door swung open and Sadie entered to find Thomas deep in thought on a bench by the door.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He jumped up and gave her a side hug. </t>
+    <t>He had been thinking about breaking up with his girlfriend, Sadie, for 2 months now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant was reminiscent of a diner from the 70’s, with black and white checkerboard tiling on the floor, a long bar in the front, and red, leather upholstery on the stools and booths. </t>
+  </si>
+  <si>
+    <t>A bell chimed as the door swung open and Sadie entered to find Thomas deep in thought on a stool at the bar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He stood up and gave her a side hug. </t>
   </si>
   <si>
     <t>“How was your day?”, he asked.</t>
   </si>
   <si>
-    <t>She clung onto him, “It was okay.</t>
-  </si>
-  <si>
-    <t>I missed you today.”</t>
-  </si>
-  <si>
-    <t>He looked at the hostess coming towards them.</t>
-  </si>
-  <si>
-    <t>“Can we have a table in the back?”, Thomas asked.</t>
+    <t>She clung onto him, “It was okay- I missed you today.”</t>
+  </si>
+  <si>
+    <t>He looked away and addressed the hostess coming towards them.</t>
+  </si>
+  <si>
+    <t>“Can we have a booth in the back?”, Thomas asked.</t>
   </si>
   <si>
     <t>She shrugged and, as she loudly popped her bubblegum, replied, “Sure, honey, this way.”</t>
@@ -121,20 +127,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">he led them to the back of the restaurant where there were dimly lit tables. </t>
+      <t xml:space="preserve">he led them to the requested booth in the back corner of the diner.  </t>
     </r>
   </si>
   <si>
     <t>“Is this alright?”, the hostess asked.</t>
   </si>
   <si>
-    <t>Thomas cleared his throat and tried not to grimace at the stained fabric that lined the booth.</t>
-  </si>
-  <si>
-    <t>“This is great.</t>
-  </si>
-  <si>
-    <t>Thank you,” Thomas said.</t>
+    <t>Thomas replied, “This is great- thank you.”</t>
   </si>
   <si>
     <t>Sadie slipped into the cushioned seat and grabbed Thomas’ hand.</t>
@@ -164,23 +164,25 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>“Sadie, I’ve been thinking, and I need to figure out some stuff… on my own.”</t>
+      <t xml:space="preserve">Finally, after a few moments, Thomas let out a deep breath and said, </t>
     </r>
-  </si>
-  <si>
-    <t>Sadie’s mouth popped open for a moment.</t>
-  </si>
-  <si>
-    <t>Then she swallowed and shifted back in her seat.</t>
-  </si>
-  <si>
-    <t>“Things have been really picking up at work.</t>
-  </si>
-  <si>
-    <t>And I’m not sure that this is the job I want to do anymore.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s been really overwhelming between working and figuring out if I should change careers.” </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>“Sadie, I’ve been thinking, and I need a break from this relationship because I need to figure out my career path on my own.”</t>
+    </r>
+  </si>
+  <si>
+    <t>Sadie sat back in her seat.</t>
+  </si>
+  <si>
+    <t>Thomas continued, “Things have been really picking up at work and I’m not sure that this is the job I want to do anymore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s been really overwhelming between working and figuring out if I should change careers and I really feel like I need more time to figure it out.” </t>
   </si>
   <si>
     <r>
@@ -197,7 +199,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>he waiter appeared and interrupted the speech Thomas had been practicing.</t>
+      <t>he waiter appeared and interrupted the spiel Thomas had been practicing.</t>
     </r>
   </si>
   <si>
@@ -235,7 +237,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Thomas and Sadie realized there were menus on the table, and they glanced at the lengthy list quickly.</t>
+      <t>Thomas and Sadie realized there were menus on the table, and they glanced at them quickly.</t>
     </r>
   </si>
   <si>
@@ -245,7 +247,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>There were so many strange dishes they had never heard of before, so they settled on familiar orders.</t>
+      <t>The menus were laminated posters with silly names for all the foods, and since they didn’t want to read through the description they settled on familiar orders.</t>
     </r>
   </si>
   <si>
@@ -290,7 +292,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>S</t>
+      <t>Finally Sadie reacted and</t>
     </r>
     <r>
       <rPr>
@@ -298,7 +300,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">adie quietly burst into tears. </t>
+      <t xml:space="preserve"> quietly burst into tears. </t>
     </r>
   </si>
   <si>
@@ -308,10 +310,10 @@
     <t>“Is this really what you want?</t>
   </si>
   <si>
-    <t>I don’t understand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Things were fine. </t>
+    <t xml:space="preserve">I don’t understand- things were fine, I thought. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think we should stay together because we can change how much we hang out. </t>
   </si>
   <si>
     <t>We don’t have to hang out all the time, or as much as we do now.”</t>
@@ -326,7 +328,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>A</t>
+      <t>Suddenly</t>
     </r>
     <r>
       <rPr>
@@ -334,7 +336,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>t that moment, the waiter arrived with the burger and reuben and set them on the table.</t>
+      <t>, the waiter arrived with the burger and reuben and set them on the table.</t>
     </r>
   </si>
   <si>
@@ -387,11 +389,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>he stood up, grabbed half of the reuben and shook it at him as she growled, “Don’t follow me, and don’t talk to me anymore!”</t>
+      <t>he stood up, grabbed half of the reuben and shook it at him as she growled, “Don’t follow me, and don’t talk to me anymore!</t>
     </r>
   </si>
   <si>
-    <t>Sadie's heels clacked loudly against the black and white linoleum, and the bell above the door jingled cheerfully as the door closed behind her.</t>
+    <t>Also, I want my polaroid camera and Beatle’s poster back!”</t>
+  </si>
+  <si>
+    <t>She stormed off, her heels clacking loudly against the black and white floor, and the bell above the door jingled cheerfully as the door closed behind her.</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas sat there for awhile in shock at how quickly everything transpired. </t>
@@ -414,7 +419,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -589,9 +594,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -617,6 +619,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1701,7 +1706,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1709,14 +1714,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1738,970 +1737,974 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="80.25" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6">
+      <c r="A2" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5">
         <v>11</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="205.8" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="79.8" customHeight="1">
-      <c r="A5" t="s" s="12">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="61.8" customHeight="1">
-      <c r="A6" t="s" s="12">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="152.05" customHeight="1">
+      <c r="A4" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="205.8" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="79.8" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" ht="61.8" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="43.8" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="115.8" customHeight="1">
-      <c r="A9" t="s" s="12">
+      <c r="A7" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="97.8" customHeight="1">
+      <c r="A8" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="133.8" customHeight="1">
+      <c r="A9" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="115.8" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="A10" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" ht="187.8" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="A11" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
         <v>9</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="133.8" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="115.8" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" ht="79.8" customHeight="1">
-      <c r="A13" t="s" s="12">
+      <c r="A13" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" ht="97.8" customHeight="1">
+      <c r="A14" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" ht="151.8" customHeight="1">
+      <c r="A15" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" ht="115.8" customHeight="1">
+      <c r="A16" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" ht="115.8" customHeight="1">
+      <c r="A17" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" ht="79.8" customHeight="1">
+      <c r="A18" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" ht="97.8" customHeight="1">
+      <c r="A19" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" ht="79.8" customHeight="1">
+      <c r="A20" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" ht="61.8" customHeight="1">
+      <c r="A21" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" ht="349.8" customHeight="1">
+      <c r="A22" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" ht="61.8" customHeight="1">
+      <c r="A23" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" ht="223.8" customHeight="1">
+      <c r="A24" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" ht="241.8" customHeight="1">
+      <c r="A25" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9">
         <v>17</v>
       </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="169.8" customHeight="1">
-      <c r="A14" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="43.8" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="61.8" customHeight="1">
-      <c r="A16" t="s" s="12">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" ht="151.8" customHeight="1">
+      <c r="A26" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" ht="61.8" customHeight="1">
+      <c r="A27" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" ht="79.8" customHeight="1">
+      <c r="A28" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" ht="187.8" customHeight="1">
+      <c r="A29" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" ht="277.8" customHeight="1">
+      <c r="A30" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" ht="97.8" customHeight="1">
+      <c r="A31" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" ht="133.8" customHeight="1">
+      <c r="A32" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" ht="97.8" customHeight="1">
+      <c r="A33" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" ht="79.8" customHeight="1">
+      <c r="A34" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" ht="97.8" customHeight="1">
+      <c r="A35" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" ht="97.8" customHeight="1">
+      <c r="A36" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" ht="115.8" customHeight="1">
+      <c r="A37" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9">
+        <v>17</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" ht="97.8" customHeight="1">
+      <c r="A38" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3</v>
+      </c>
+      <c r="C38" s="9">
+        <v>3</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" ht="241.8" customHeight="1">
+      <c r="A39" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="B39" s="8">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9">
+        <v>3</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" ht="61.8" customHeight="1">
+      <c r="A40" t="s" s="11">
+        <v>46</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" ht="97.8" customHeight="1">
+      <c r="A41" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" ht="151.8" customHeight="1">
+      <c r="A42" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="B42" s="8">
+        <v>3</v>
+      </c>
+      <c r="C42" s="9">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" ht="115.8" customHeight="1">
+      <c r="A43" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="B43" s="8">
+        <v>3</v>
+      </c>
+      <c r="C43" s="9">
+        <v>3</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" ht="151.8" customHeight="1">
+      <c r="A44" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="B44" s="8">
+        <v>3</v>
+      </c>
+      <c r="C44" s="9">
+        <v>3</v>
+      </c>
+      <c r="D44" s="9">
         <v>20</v>
       </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="151.8" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="115.8" customHeight="1">
-      <c r="A18" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="115.8" customHeight="1">
-      <c r="A19" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="79.8" customHeight="1">
-      <c r="A20" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="97.8" customHeight="1">
-      <c r="A21" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="B21" s="9">
-        <v>2</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="79.8" customHeight="1">
-      <c r="A22" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="B22" s="9">
-        <v>2</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="61.8" customHeight="1">
-      <c r="A23" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="B23" s="9">
-        <v>2</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10">
-        <v>22</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="151.8" customHeight="1">
-      <c r="A24" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9">
-        <v>2</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="97.8" customHeight="1">
-      <c r="A25" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9">
-        <v>2</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" ht="97.8" customHeight="1">
-      <c r="A26" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9">
-        <v>2</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" ht="97.8" customHeight="1">
-      <c r="A27" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="97.8" customHeight="1">
-      <c r="A28" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="B28" s="9">
-        <v>2</v>
-      </c>
-      <c r="C28" s="10">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" ht="169.8" customHeight="1">
-      <c r="A29" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="B29" s="9">
-        <v>2</v>
-      </c>
-      <c r="C29" s="10">
-        <v>2</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" ht="151.8" customHeight="1">
+      <c r="A45" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="B45" s="8">
+        <v>4</v>
+      </c>
+      <c r="C45" s="9">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" ht="97.8" customHeight="1">
+      <c r="A46" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="B46" s="8">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9">
+        <v>3</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" ht="97.8" customHeight="1">
+      <c r="A47" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="B47" s="8">
+        <v>4</v>
+      </c>
+      <c r="C47" s="9">
+        <v>3</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" ht="97.8" customHeight="1">
+      <c r="A48" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="C48" s="9">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" ht="205.8" customHeight="1">
+      <c r="A49" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="B49" s="8">
+        <v>4</v>
+      </c>
+      <c r="C49" s="9">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" ht="97.8" customHeight="1">
+      <c r="A50" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="B50" s="8">
+        <v>4</v>
+      </c>
+      <c r="C50" s="9">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" ht="43.8" customHeight="1">
+      <c r="A51" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="B51" s="8">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9">
+        <v>3</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" ht="43.8" customHeight="1">
+      <c r="A52" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="B52" s="8">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9">
+        <v>3</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" ht="97.8" customHeight="1">
+      <c r="A53" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="B53" s="8">
+        <v>4</v>
+      </c>
+      <c r="C53" s="9">
+        <v>3</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" ht="43.8" customHeight="1">
+      <c r="A54" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="B54" s="8">
+        <v>4</v>
+      </c>
+      <c r="C54" s="9">
+        <v>3</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9">
         <v>17</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" ht="151.8" customHeight="1">
-      <c r="A30" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="B30" s="9">
-        <v>3</v>
-      </c>
-      <c r="C30" s="10">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" ht="61.8" customHeight="1">
-      <c r="A31" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="B31" s="9">
-        <v>3</v>
-      </c>
-      <c r="C31" s="10">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="79.8" customHeight="1">
-      <c r="A32" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B32" s="9">
-        <v>3</v>
-      </c>
-      <c r="C32" s="10">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="187.8" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B33" s="9">
-        <v>3</v>
-      </c>
-      <c r="C33" s="10">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="187.8" customHeight="1">
-      <c r="A34" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="B34" s="9">
-        <v>3</v>
-      </c>
-      <c r="C34" s="10">
-        <v>2</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="97.8" customHeight="1">
-      <c r="A35" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="B35" s="9">
-        <v>3</v>
-      </c>
-      <c r="C35" s="10">
-        <v>2</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="133.8" customHeight="1">
-      <c r="A36" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3</v>
-      </c>
-      <c r="C36" s="10">
-        <v>2</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="97.8" customHeight="1">
-      <c r="A37" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="B37" s="9">
-        <v>3</v>
-      </c>
-      <c r="C37" s="10">
-        <v>2</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="79.8" customHeight="1">
-      <c r="A38" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="B38" s="9">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10">
-        <v>2</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" ht="97.8" customHeight="1">
-      <c r="A39" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="B39" s="9">
-        <v>3</v>
-      </c>
-      <c r="C39" s="10">
-        <v>2</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="97.8" customHeight="1">
-      <c r="A40" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9">
-        <v>3</v>
-      </c>
-      <c r="C40" s="10">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="115.8" customHeight="1">
-      <c r="A41" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="B41" s="9">
-        <v>3</v>
-      </c>
-      <c r="C41" s="10">
-        <v>2</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="10">
-        <v>17</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" ht="61.8" customHeight="1">
-      <c r="A42" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="B42" s="9">
-        <v>3</v>
-      </c>
-      <c r="C42" s="10">
-        <v>3</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" ht="241.8" customHeight="1">
-      <c r="A43" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="B43" s="9">
-        <v>3</v>
-      </c>
-      <c r="C43" s="10">
-        <v>3</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" ht="61.8" customHeight="1">
-      <c r="A44" t="s" s="12">
-        <v>48</v>
-      </c>
-      <c r="B44" s="9">
-        <v>3</v>
-      </c>
-      <c r="C44" s="10">
-        <v>3</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" ht="43.8" customHeight="1">
-      <c r="A45" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="B45" s="9">
-        <v>3</v>
-      </c>
-      <c r="C45" s="10">
-        <v>3</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" ht="43.8" customHeight="1">
-      <c r="A46" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="B46" s="9">
-        <v>3</v>
-      </c>
-      <c r="C46" s="10">
-        <v>3</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" ht="43.8" customHeight="1">
-      <c r="A47" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="B47" s="9">
-        <v>3</v>
-      </c>
-      <c r="C47" s="10">
-        <v>3</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" ht="115.8" customHeight="1">
-      <c r="A48" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B48" s="9">
-        <v>3</v>
-      </c>
-      <c r="C48" s="10">
-        <v>3</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" ht="151.8" customHeight="1">
-      <c r="A49" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="B49" s="9">
-        <v>3</v>
-      </c>
-      <c r="C49" s="10">
-        <v>3</v>
-      </c>
-      <c r="D49" s="10">
-        <v>20</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" ht="169.8" customHeight="1">
-      <c r="A50" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="B50" s="9">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="223.8" customHeight="1">
+      <c r="A55" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C50" s="10">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" ht="97.8" customHeight="1">
-      <c r="A51" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="B51" s="9">
+      <c r="C55" s="9">
         <v>4</v>
       </c>
-      <c r="C51" s="10">
-        <v>3</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" ht="97.8" customHeight="1">
-      <c r="A52" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="B52" s="9">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" ht="115.8" customHeight="1">
+      <c r="A56" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" ht="277.8" customHeight="1">
+      <c r="A57" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C52" s="10">
-        <v>3</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" ht="97.8" customHeight="1">
-      <c r="A53" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="B53" s="9">
+      <c r="C57" s="9">
         <v>4</v>
       </c>
-      <c r="C53" s="10">
-        <v>3</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" ht="205.8" customHeight="1">
-      <c r="A54" t="s" s="12">
-        <v>57</v>
-      </c>
-      <c r="B54" s="9">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" ht="133.8" customHeight="1">
+      <c r="A58" t="s" s="11">
+        <v>64</v>
+      </c>
+      <c r="B58" s="8">
         <v>4</v>
       </c>
-      <c r="C54" s="10">
-        <v>3</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" ht="97.8" customHeight="1">
-      <c r="A55" t="s" s="12">
-        <v>58</v>
-      </c>
-      <c r="B55" s="9">
+      <c r="C58" s="9">
         <v>4</v>
       </c>
-      <c r="C55" s="10">
-        <v>3</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" ht="43.8" customHeight="1">
-      <c r="A56" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="B56" s="9">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" ht="151.8" customHeight="1">
+      <c r="A59" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="B59" s="8">
         <v>4</v>
       </c>
-      <c r="C56" s="10">
-        <v>3</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" ht="43.8" customHeight="1">
-      <c r="A57" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="B57" s="9">
+      <c r="C59" s="9">
         <v>4</v>
       </c>
-      <c r="C57" s="10">
-        <v>3</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" ht="97.8" customHeight="1">
-      <c r="A58" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="B58" s="9">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" ht="205.8" customHeight="1">
+      <c r="A60" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="B60" s="8">
         <v>4</v>
       </c>
-      <c r="C58" s="10">
-        <v>3</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" ht="43.8" customHeight="1">
-      <c r="A59" t="s" s="12">
-        <v>62</v>
-      </c>
-      <c r="B59" s="9">
+      <c r="C60" s="9">
         <v>4</v>
       </c>
-      <c r="C59" s="10">
-        <v>3</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10">
-        <v>17</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" ht="223.8" customHeight="1">
-      <c r="A60" t="s" s="12">
-        <v>63</v>
-      </c>
-      <c r="B60" s="9">
-        <v>4</v>
-      </c>
-      <c r="C60" s="10">
-        <v>4</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" ht="277.8" customHeight="1">
-      <c r="A61" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="B61" s="9">
-        <v>4</v>
-      </c>
-      <c r="C61" s="10">
-        <v>4</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" ht="133.8" customHeight="1">
-      <c r="A62" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="B62" s="9">
-        <v>4</v>
-      </c>
-      <c r="C62" s="10">
-        <v>4</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" ht="151.8" customHeight="1">
-      <c r="A63" t="s" s="12">
-        <v>66</v>
-      </c>
-      <c r="B63" s="9">
-        <v>4</v>
-      </c>
-      <c r="C63" s="10">
-        <v>4</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" ht="205.8" customHeight="1">
-      <c r="A64" t="s" s="12">
-        <v>67</v>
-      </c>
-      <c r="B64" s="9">
-        <v>4</v>
-      </c>
-      <c r="C64" s="10">
-        <v>4</v>
-      </c>
-      <c r="D64" s="10">
+      <c r="D60" s="9">
         <v>13</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E60" s="9">
         <v>5</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>storyText</t>
   </si>
@@ -63,7 +63,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">omas, dreading the conversation he was about to have, got to </t>
+      <t xml:space="preserve">omas, dreading the breakup conversation he was about to start, got to </t>
     </r>
     <r>
       <rPr>
@@ -82,35 +82,29 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> early.</t>
+      <t xml:space="preserve"> late but Sadie, his girlfriend, was not there yet.</t>
     </r>
   </si>
   <si>
-    <t>He had been thinking about breaking up with his girlfriend, Sadie, for 2 months now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The restaurant was reminiscent of a diner from the 70’s, with black and white checkerboard tiling on the floor, a long bar in the front, and red, leather upholstery on the stools and booths. </t>
+    <t>He had been thinking about breaking up with her for 2 months now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant he had chosen to meet at was reminiscent of a diner from the 70’s, with black and white checkerboard tiling on the floor, a long bar in the front, and red, leather upholstery on the stools and booths. </t>
   </si>
   <si>
     <t>A bell chimed as the door swung open and Sadie entered to find Thomas deep in thought on a stool at the bar.</t>
   </si>
   <si>
-    <t xml:space="preserve">He stood up and gave her a side hug. </t>
-  </si>
-  <si>
-    <t>“How was your day?”, he asked.</t>
+    <t>He stood up and gave her a side hug, asking quickly, “How was your day?”</t>
   </si>
   <si>
     <t>She clung onto him, “It was okay- I missed you today.”</t>
   </si>
   <si>
-    <t>He looked away and addressed the hostess coming towards them.</t>
-  </si>
-  <si>
-    <t>“Can we have a booth in the back?”, Thomas asked.</t>
-  </si>
-  <si>
-    <t>She shrugged and, as she loudly popped her bubblegum, replied, “Sure, honey, this way.”</t>
+    <t>He looked away and addressed the hostess coming towards them, “Can we have a booth in the back?”</t>
+  </si>
+  <si>
+    <t>She shrugged and after loudly popping her bubblegum replied, “Sure, honey, this way.”</t>
   </si>
   <si>
     <r>
@@ -127,23 +121,17 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">he led them to the requested booth in the back corner of the diner.  </t>
+      <t xml:space="preserve">he seated them at the requested booth in the back corner of the diner.  </t>
     </r>
   </si>
   <si>
-    <t>“Is this alright?”, the hostess asked.</t>
-  </si>
-  <si>
-    <t>Thomas replied, “This is great- thank you.”</t>
-  </si>
-  <si>
     <t>Sadie slipped into the cushioned seat and grabbed Thomas’ hand.</t>
   </si>
   <si>
-    <t>“Tell me about your day!”, Sadie sang as Thomas sat down.</t>
-  </si>
-  <si>
-    <t>He looked at her silently and pulled his hand slowly from hers.</t>
+    <t>“Tell me about your day!”, she sang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He looked at her silently and pulled his hand slowly from hers as a puzzled look grew on Sadie’s face. </t>
   </si>
   <si>
     <t>Sadie gave him a puzzled look.</t>
@@ -164,7 +152,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Finally, after a few moments, Thomas let out a deep breath and said, </t>
+      <t xml:space="preserve">After a few moments, Thomas let out a deep breath and said, </t>
     </r>
     <r>
       <rPr>
@@ -182,7 +170,7 @@
     <t>Thomas continued, “Things have been really picking up at work and I’m not sure that this is the job I want to do anymore.</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s been really overwhelming between working and figuring out if I should change careers and I really feel like I need more time to figure it out.” </t>
+    <t xml:space="preserve">Plus, it’s been really overwhelming between working and figuring out if I should change careers and I really feel like I need more time to figure it out.” </t>
   </si>
   <si>
     <r>
@@ -199,20 +187,8 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>he waiter appeared and interrupted the spiel Thomas had been practicing.</t>
+      <t xml:space="preserve">he waiter appeared and cheerily asked, </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>“Hello you two!”, the waiter said.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -271,19 +247,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Once she agreed to get that, he walked away. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadie and Thomas looked at each other. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“So what are you saying?”, Sadie asked. </t>
-  </si>
-  <si>
-    <t>Thomas replied, “I want to take a break for awhile.</t>
-  </si>
-  <si>
-    <t>You know, have space to figure out what I’m supposed to be doing.”</t>
+    <t xml:space="preserve">Once she agreed to get that, the waiter walked away. </t>
   </si>
   <si>
     <r>
@@ -292,7 +256,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Finally Sadie reacted and</t>
+      <t xml:space="preserve">Sadie not so </t>
     </r>
     <r>
       <rPr>
@@ -300,11 +264,11 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> quietly burst into tears. </t>
+      <t xml:space="preserve">quietly burst into tears. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Nevertheless, people sitting at the adjacent table looked over and quickly averted their gaze as they realized what was happening. </t>
+    <t xml:space="preserve">People sitting at the bar looked over and quickly averted their gaze when they figured what was happening. </t>
   </si>
   <si>
     <t>“Is this really what you want?</t>
@@ -328,7 +292,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Suddenly</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -336,7 +300,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>, the waiter arrived with the burger and reuben and set them on the table.</t>
+      <t>he waiter appeared with the burger and reuben and set them in front of them.</t>
     </r>
   </si>
   <si>
@@ -349,22 +313,10 @@
     <t>“Oh no, we’re good, thanks,” Thomas said.</t>
   </si>
   <si>
-    <t>Once the waiter had walked away still oblivious to the situation, Thomas sighed and said, “Sadie, I’m sorry.</t>
-  </si>
-  <si>
-    <t>You are so great, and I love hanging out with you.</t>
-  </si>
-  <si>
-    <t>But I need some time.</t>
-  </si>
-  <si>
-    <t>I’m so sorry.”</t>
-  </si>
-  <si>
-    <t>He grabbed her hand, and she pulled it out of his.</t>
-  </si>
-  <si>
-    <t>“Sadie,” he said.</t>
+    <t>Once the waiter had walked away, Thomas sighed and said, “Sadie, I’m sorry.</t>
+  </si>
+  <si>
+    <t>You are so great, but I need some time.</t>
   </si>
   <si>
     <r>
@@ -393,13 +345,13 @@
     </r>
   </si>
   <si>
-    <t>Also, I want my polaroid camera and Beatle’s poster back!”</t>
+    <t>Also, I want my polaroid camera and Beatles poster back!”</t>
   </si>
   <si>
     <t>She stormed off, her heels clacking loudly against the black and white floor, and the bell above the door jingled cheerfully as the door closed behind her.</t>
   </si>
   <si>
-    <t xml:space="preserve">Thomas sat there for awhile in shock at how quickly everything transpired. </t>
+    <t xml:space="preserve">Thomas sat there for awhile in shock at how quickly everything had transpired. </t>
   </si>
   <si>
     <t>He grabbed his burger and took a bite of it, creating a dry and fishy taste in his mouth.</t>
@@ -1706,7 +1658,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1744,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="80.25" customHeight="1">
+    <row r="2" ht="116.25" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>8</v>
       </c>
@@ -1762,7 +1714,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="80.05" customHeight="1">
+    <row r="3" ht="68.05" customHeight="1">
       <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
@@ -1780,7 +1732,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" ht="152.05" customHeight="1">
+    <row r="4" ht="176.05" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>10</v>
       </c>
@@ -1814,7 +1766,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" ht="79.8" customHeight="1">
+    <row r="6" ht="133.8" customHeight="1">
       <c r="A6" t="s" s="11">
         <v>12</v>
       </c>
@@ -1830,7 +1782,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="61.8" customHeight="1">
+    <row r="7" ht="97.8" customHeight="1">
       <c r="A7" t="s" s="11">
         <v>13</v>
       </c>
@@ -1846,7 +1798,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" ht="97.8" customHeight="1">
+    <row r="8" ht="187.8" customHeight="1">
       <c r="A8" t="s" s="11">
         <v>14</v>
       </c>
@@ -1862,7 +1814,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" ht="133.8" customHeight="1">
+    <row r="9" ht="187.8" customHeight="1">
       <c r="A9" t="s" s="11">
         <v>15</v>
       </c>
@@ -1872,18 +1824,20 @@
       <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9">
+        <v>9</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="115.8" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="7">
         <v>16</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -1894,26 +1848,24 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" ht="187.8" customHeight="1">
+    <row r="11" ht="151.8" customHeight="1">
       <c r="A11" t="s" s="11">
         <v>17</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
-        <v>9</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" ht="115.8" customHeight="1">
-      <c r="A12" t="s" s="7">
+    <row r="12" ht="79.8" customHeight="1">
+      <c r="A12" t="s" s="11">
         <v>18</v>
       </c>
       <c r="B12" s="8">
@@ -1928,7 +1880,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" ht="79.8" customHeight="1">
+    <row r="13" ht="187.8" customHeight="1">
       <c r="A13" t="s" s="11">
         <v>19</v>
       </c>
@@ -1944,7 +1896,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" ht="97.8" customHeight="1">
+    <row r="14" ht="79.8" customHeight="1">
       <c r="A14" t="s" s="11">
         <v>20</v>
       </c>
@@ -1960,7 +1912,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" ht="151.8" customHeight="1">
+    <row r="15" ht="97.8" customHeight="1">
       <c r="A15" t="s" s="11">
         <v>21</v>
       </c>
@@ -1976,7 +1928,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" ht="115.8" customHeight="1">
+    <row r="16" ht="79.8" customHeight="1">
       <c r="A16" t="s" s="11">
         <v>22</v>
       </c>
@@ -1992,7 +1944,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" ht="115.8" customHeight="1">
+    <row r="17" ht="61.8" customHeight="1">
       <c r="A17" t="s" s="11">
         <v>23</v>
       </c>
@@ -2003,12 +1955,14 @@
         <v>1</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9">
+        <v>22</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" ht="79.8" customHeight="1">
+    <row r="18" ht="331.8" customHeight="1">
       <c r="A18" t="s" s="11">
         <v>24</v>
       </c>
@@ -2016,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -2024,7 +1978,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" ht="97.8" customHeight="1">
+    <row r="19" ht="61.8" customHeight="1">
       <c r="A19" t="s" s="11">
         <v>25</v>
       </c>
@@ -2032,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -2040,7 +1994,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" ht="79.8" customHeight="1">
+    <row r="20" ht="223.8" customHeight="1">
       <c r="A20" t="s" s="11">
         <v>26</v>
       </c>
@@ -2048,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -2056,7 +2010,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" ht="61.8" customHeight="1">
+    <row r="21" ht="241.8" customHeight="1">
       <c r="A21" t="s" s="11">
         <v>27</v>
       </c>
@@ -2064,22 +2018,22 @@
         <v>2</v>
       </c>
       <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9">
-        <v>22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>17</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" ht="349.8" customHeight="1">
+    <row r="22" ht="151.8" customHeight="1">
       <c r="A22" t="s" s="11">
         <v>28</v>
       </c>
       <c r="B22" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
@@ -2090,12 +2044,12 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" ht="61.8" customHeight="1">
+    <row r="23" ht="187.8" customHeight="1">
       <c r="A23" t="s" s="11">
         <v>29</v>
       </c>
       <c r="B23" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="9">
         <v>2</v>
@@ -2106,12 +2060,12 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" ht="223.8" customHeight="1">
+    <row r="24" ht="277.8" customHeight="1">
       <c r="A24" t="s" s="11">
         <v>30</v>
       </c>
       <c r="B24" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
@@ -2122,25 +2076,23 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" ht="241.8" customHeight="1">
+    <row r="25" ht="97.8" customHeight="1">
       <c r="A25" t="s" s="11">
         <v>31</v>
       </c>
       <c r="B25" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="9">
         <v>2</v>
       </c>
-      <c r="D25" s="9">
-        <v>17</v>
-      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" ht="151.8" customHeight="1">
+    <row r="26" ht="133.8" customHeight="1">
       <c r="A26" t="s" s="11">
         <v>32</v>
       </c>
@@ -2156,7 +2108,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" ht="61.8" customHeight="1">
+    <row r="27" ht="115.8" customHeight="1">
       <c r="A27" t="s" s="11">
         <v>33</v>
       </c>
@@ -2172,7 +2124,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" ht="79.8" customHeight="1">
+    <row r="28" ht="61.8" customHeight="1">
       <c r="A28" t="s" s="11">
         <v>34</v>
       </c>
@@ -2180,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -2196,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2204,7 +2156,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" ht="277.8" customHeight="1">
+    <row r="30" ht="61.8" customHeight="1">
       <c r="A30" t="s" s="11">
         <v>36</v>
       </c>
@@ -2212,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -2228,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -2236,7 +2188,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" ht="133.8" customHeight="1">
+    <row r="32" ht="151.8" customHeight="1">
       <c r="A32" t="s" s="11">
         <v>38</v>
       </c>
@@ -2244,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -2252,7 +2204,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" ht="97.8" customHeight="1">
+    <row r="33" ht="115.8" customHeight="1">
       <c r="A33" t="s" s="11">
         <v>39</v>
       </c>
@@ -2260,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -2268,7 +2220,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" ht="79.8" customHeight="1">
+    <row r="34" ht="151.8" customHeight="1">
       <c r="A34" t="s" s="11">
         <v>40</v>
       </c>
@@ -2276,23 +2228,25 @@
         <v>3</v>
       </c>
       <c r="C34" s="9">
-        <v>2</v>
-      </c>
-      <c r="D34" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="9">
+        <v>20</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" ht="97.8" customHeight="1">
+    <row r="35" ht="151.8" customHeight="1">
       <c r="A35" t="s" s="11">
         <v>41</v>
       </c>
       <c r="B35" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -2305,10 +2259,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -2316,20 +2270,18 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" ht="115.8" customHeight="1">
+    <row r="37" ht="97.8" customHeight="1">
       <c r="A37" t="s" s="11">
         <v>43</v>
       </c>
       <c r="B37" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="9">
-        <v>17</v>
-      </c>
+      <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -2339,7 +2291,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="9">
         <v>3</v>
@@ -2350,12 +2302,12 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" ht="241.8" customHeight="1">
+    <row r="39" ht="151.8" customHeight="1">
       <c r="A39" t="s" s="11">
         <v>45</v>
       </c>
       <c r="B39" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="9">
         <v>3</v>
@@ -2366,12 +2318,12 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" ht="61.8" customHeight="1">
+    <row r="40" ht="79.8" customHeight="1">
       <c r="A40" t="s" s="11">
         <v>46</v>
       </c>
       <c r="B40" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="9">
         <v>3</v>
@@ -2382,15 +2334,15 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" ht="97.8" customHeight="1">
+    <row r="41" ht="223.8" customHeight="1">
       <c r="A41" t="s" s="11">
         <v>47</v>
       </c>
       <c r="B41" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -2398,31 +2350,27 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" ht="151.8" customHeight="1">
+    <row r="42" ht="115.8" customHeight="1">
       <c r="A42" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="B42" s="8">
-        <v>3</v>
-      </c>
-      <c r="C42" s="9">
-        <v>3</v>
-      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" ht="115.8" customHeight="1">
+    <row r="43" ht="277.8" customHeight="1">
       <c r="A43" t="s" s="11">
         <v>49</v>
       </c>
       <c r="B43" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -2435,14 +2383,12 @@
         <v>50</v>
       </c>
       <c r="B44" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="9">
-        <v>3</v>
-      </c>
-      <c r="D44" s="9">
-        <v>20</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -2456,7 +2402,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -2464,7 +2410,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" ht="97.8" customHeight="1">
+    <row r="46" ht="205.8" customHeight="1">
       <c r="A46" t="s" s="11">
         <v>52</v>
       </c>
@@ -2472,239 +2418,17 @@
         <v>4</v>
       </c>
       <c r="C46" s="9">
-        <v>3</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="D46" s="9">
+        <v>13</v>
+      </c>
+      <c r="E46" s="9">
+        <v>5</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-    </row>
-    <row r="47" ht="97.8" customHeight="1">
-      <c r="A47" t="s" s="11">
-        <v>53</v>
-      </c>
-      <c r="B47" s="8">
-        <v>4</v>
-      </c>
-      <c r="C47" s="9">
-        <v>3</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" ht="97.8" customHeight="1">
-      <c r="A48" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="B48" s="8">
-        <v>4</v>
-      </c>
-      <c r="C48" s="9">
-        <v>3</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" ht="205.8" customHeight="1">
-      <c r="A49" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="B49" s="8">
-        <v>4</v>
-      </c>
-      <c r="C49" s="9">
-        <v>3</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" ht="97.8" customHeight="1">
-      <c r="A50" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="B50" s="8">
-        <v>4</v>
-      </c>
-      <c r="C50" s="9">
-        <v>3</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" ht="43.8" customHeight="1">
-      <c r="A51" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="B51" s="8">
-        <v>4</v>
-      </c>
-      <c r="C51" s="9">
-        <v>3</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" ht="43.8" customHeight="1">
-      <c r="A52" t="s" s="11">
-        <v>58</v>
-      </c>
-      <c r="B52" s="8">
-        <v>4</v>
-      </c>
-      <c r="C52" s="9">
-        <v>3</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" ht="97.8" customHeight="1">
-      <c r="A53" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="B53" s="8">
-        <v>4</v>
-      </c>
-      <c r="C53" s="9">
-        <v>3</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" ht="43.8" customHeight="1">
-      <c r="A54" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="B54" s="8">
-        <v>4</v>
-      </c>
-      <c r="C54" s="9">
-        <v>3</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="9">
-        <v>17</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" ht="223.8" customHeight="1">
-      <c r="A55" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="B55" s="8">
-        <v>4</v>
-      </c>
-      <c r="C55" s="9">
-        <v>4</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" ht="115.8" customHeight="1">
-      <c r="A56" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" ht="277.8" customHeight="1">
-      <c r="A57" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="B57" s="8">
-        <v>4</v>
-      </c>
-      <c r="C57" s="9">
-        <v>4</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" ht="133.8" customHeight="1">
-      <c r="A58" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="B58" s="8">
-        <v>4</v>
-      </c>
-      <c r="C58" s="9">
-        <v>4</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" ht="151.8" customHeight="1">
-      <c r="A59" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="B59" s="8">
-        <v>4</v>
-      </c>
-      <c r="C59" s="9">
-        <v>4</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" ht="205.8" customHeight="1">
-      <c r="A60" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="B60" s="8">
-        <v>4</v>
-      </c>
-      <c r="C60" s="9">
-        <v>4</v>
-      </c>
-      <c r="D60" s="9">
-        <v>13</v>
-      </c>
-      <c r="E60" s="9">
-        <v>5</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>storyText</t>
   </si>
@@ -63,7 +63,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">omas, dreading the breakup conversation he was about to start, got to </t>
+      <t xml:space="preserve">omas, dreading the approaching breakup conversation he was about to start, got to </t>
     </r>
     <r>
       <rPr>
@@ -86,13 +86,13 @@
     </r>
   </si>
   <si>
-    <t>He had been thinking about breaking up with her for 2 months now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The restaurant he had chosen to meet at was reminiscent of a diner from the 70’s, with black and white checkerboard tiling on the floor, a long bar in the front, and red, leather upholstery on the stools and booths. </t>
-  </si>
-  <si>
-    <t>A bell chimed as the door swung open and Sadie entered to find Thomas deep in thought on a stool at the bar.</t>
+    <t>Thomas had been thinking about breaking up with her for 2 months now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant he had chosen to meet at was reminiscent of a diner from the 70’s; there was black and white checkerboard tiling on the floor, a long bar in the front, and booths and stools with red, leather upholstery. </t>
+  </si>
+  <si>
+    <t>A bell chimed as the door swung open, and Sadie entered to find Thomas ruminating at the bar.</t>
   </si>
   <si>
     <t>He stood up and gave her a side hug, asking quickly, “How was your day?”</t>
@@ -104,7 +104,7 @@
     <t>He looked away and addressed the hostess coming towards them, “Can we have a booth in the back?”</t>
   </si>
   <si>
-    <t>She shrugged and after loudly popping her bubblegum replied, “Sure, honey, this way.”</t>
+    <t>She shrugged and after loudly popping her bubblegum replied, “Sure, honey.”</t>
   </si>
   <si>
     <r>
@@ -121,7 +121,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">he seated them at the requested booth in the back corner of the diner.  </t>
+      <t xml:space="preserve">he seated them at a booth in the back corner of the diner.  </t>
     </r>
   </si>
   <si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">He looked at her silently and pulled his hand slowly from hers as a puzzled look grew on Sadie’s face. </t>
-  </si>
-  <si>
-    <t>Sadie gave him a puzzled look.</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas looked away and took a deep breath. </t>
@@ -223,7 +220,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The menus were laminated posters with silly names for all the foods, and since they didn’t want to read through the description they settled on familiar orders.</t>
+      <t>The menus were laminated posters with silly names for all the foods, and since they didn’t want to read through the description, they settled on familiar orders.</t>
     </r>
   </si>
   <si>
@@ -247,7 +244,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Once she agreed to get that, the waiter walked away. </t>
+    <t xml:space="preserve">Confirming that that was all they’d like, the waiter walked away. </t>
   </si>
   <si>
     <r>
@@ -256,7 +253,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Sadie not so </t>
+      <t xml:space="preserve">Sadie- not so </t>
     </r>
     <r>
       <rPr>
@@ -264,14 +261,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">quietly burst into tears. </t>
+      <t xml:space="preserve">quietly- burst into tears. </t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">People sitting at the bar looked over and quickly averted their gaze when they figured what was happening. </t>
   </si>
   <si>
-    <t>“Is this really what you want?</t>
+    <t>She whispered, “Is this really what you want?</t>
   </si>
   <si>
     <t xml:space="preserve">I don’t understand- things were fine, I thought. </t>
@@ -307,16 +304,10 @@
     <t>“Is there anything else I can get for you two?</t>
   </si>
   <si>
-    <t>Will you be getting dessert tonight?”, he asked.</t>
+    <t>Will you be getting dessert tonight?” he asked.</t>
   </si>
   <si>
     <t>“Oh no, we’re good, thanks,” Thomas said.</t>
-  </si>
-  <si>
-    <t>Once the waiter had walked away, Thomas sighed and said, “Sadie, I’m sorry.</t>
-  </si>
-  <si>
-    <t>You are so great, but I need some time.</t>
   </si>
   <si>
     <r>
@@ -333,7 +324,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>S</t>
+      <t>With the waiter gone, Sadie suddenly</t>
     </r>
     <r>
       <rPr>
@@ -341,17 +332,17 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>he stood up, grabbed half of the reuben and shook it at him as she growled, “Don’t follow me, and don’t talk to me anymore!</t>
+      <t xml:space="preserve"> stood up, grabbed half of the reuben and shook it at him as she growled, “Don’t follow me, and don’t talk to me anymore!</t>
     </r>
   </si>
   <si>
     <t>Also, I want my polaroid camera and Beatles poster back!”</t>
   </si>
   <si>
-    <t>She stormed off, her heels clacking loudly against the black and white floor, and the bell above the door jingled cheerfully as the door closed behind her.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas sat there for awhile in shock at how quickly everything had transpired. </t>
+    <t>She stormed off, and the bell above the door jingled cheerfully as the door closed behind her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas sat there for awhile surprised at how quickly everything had transpired. </t>
   </si>
   <si>
     <t>He grabbed his burger and took a bite of it, creating a dry and fishy taste in his mouth.</t>
@@ -536,7 +527,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -572,9 +563,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1658,7 +1646,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1696,7 +1684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="116.25" customHeight="1">
+    <row r="2" ht="128.25" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>8</v>
       </c>
@@ -1750,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="205.8" customHeight="1">
+    <row r="5" ht="187.8" customHeight="1">
       <c r="A5" t="s" s="11">
         <v>11</v>
       </c>
@@ -1814,7 +1802,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" ht="187.8" customHeight="1">
+    <row r="9" ht="169.8" customHeight="1">
       <c r="A9" t="s" s="11">
         <v>15</v>
       </c>
@@ -1832,7 +1820,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" ht="115.8" customHeight="1">
+    <row r="10" ht="97.8" customHeight="1">
       <c r="A10" t="s" s="7">
         <v>16</v>
       </c>
@@ -1896,7 +1884,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" ht="79.8" customHeight="1">
+    <row r="14" ht="97.8" customHeight="1">
       <c r="A14" t="s" s="11">
         <v>20</v>
       </c>
@@ -1912,7 +1900,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" ht="97.8" customHeight="1">
+    <row r="15" ht="79.8" customHeight="1">
       <c r="A15" t="s" s="11">
         <v>21</v>
       </c>
@@ -1928,7 +1916,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" ht="79.8" customHeight="1">
+    <row r="16" ht="61.8" customHeight="1">
       <c r="A16" t="s" s="11">
         <v>22</v>
       </c>
@@ -1939,12 +1927,14 @@
         <v>1</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="9">
+        <v>22</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" ht="61.8" customHeight="1">
+    <row r="17" ht="331.8" customHeight="1">
       <c r="A17" t="s" s="11">
         <v>23</v>
       </c>
@@ -1952,17 +1942,15 @@
         <v>2</v>
       </c>
       <c r="C17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="9">
-        <v>22</v>
-      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" ht="331.8" customHeight="1">
+    <row r="18" ht="61.8" customHeight="1">
       <c r="A18" t="s" s="11">
         <v>24</v>
       </c>
@@ -1978,7 +1966,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" ht="61.8" customHeight="1">
+    <row r="19" ht="223.8" customHeight="1">
       <c r="A19" t="s" s="11">
         <v>25</v>
       </c>
@@ -1994,7 +1982,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" ht="223.8" customHeight="1">
+    <row r="20" ht="241.8" customHeight="1">
       <c r="A20" t="s" s="11">
         <v>26</v>
       </c>
@@ -2004,31 +1992,31 @@
       <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9">
+        <v>17</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" ht="241.8" customHeight="1">
+    <row r="21" ht="151.8" customHeight="1">
       <c r="A21" t="s" s="11">
         <v>27</v>
       </c>
       <c r="B21" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="9">
-        <v>17</v>
-      </c>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" ht="151.8" customHeight="1">
+    <row r="22" ht="187.8" customHeight="1">
       <c r="A22" t="s" s="11">
         <v>28</v>
       </c>
@@ -2044,7 +2032,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" ht="187.8" customHeight="1">
+    <row r="23" ht="277.8" customHeight="1">
       <c r="A23" t="s" s="11">
         <v>29</v>
       </c>
@@ -2060,7 +2048,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" ht="277.8" customHeight="1">
+    <row r="24" ht="97.8" customHeight="1">
       <c r="A24" t="s" s="11">
         <v>30</v>
       </c>
@@ -2076,7 +2064,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" ht="97.8" customHeight="1">
+    <row r="25" ht="133.8" customHeight="1">
       <c r="A25" t="s" s="11">
         <v>31</v>
       </c>
@@ -2108,7 +2096,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" ht="115.8" customHeight="1">
+    <row r="27" ht="79.8" customHeight="1">
       <c r="A27" t="s" s="11">
         <v>33</v>
       </c>
@@ -2116,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -2124,7 +2112,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" ht="61.8" customHeight="1">
+    <row r="28" ht="187.8" customHeight="1">
       <c r="A28" t="s" s="11">
         <v>34</v>
       </c>
@@ -2140,7 +2128,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" ht="187.8" customHeight="1">
+    <row r="29" ht="97.8" customHeight="1">
       <c r="A29" t="s" s="11">
         <v>35</v>
       </c>
@@ -2156,7 +2144,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" ht="61.8" customHeight="1">
+    <row r="30" ht="97.8" customHeight="1">
       <c r="A30" t="s" s="11">
         <v>36</v>
       </c>
@@ -2172,7 +2160,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" ht="97.8" customHeight="1">
+    <row r="31" ht="151.8" customHeight="1">
       <c r="A31" t="s" s="11">
         <v>37</v>
       </c>
@@ -2188,7 +2176,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" ht="151.8" customHeight="1">
+    <row r="32" ht="115.8" customHeight="1">
       <c r="A32" t="s" s="11">
         <v>38</v>
       </c>
@@ -2204,7 +2192,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" ht="115.8" customHeight="1">
+    <row r="33" ht="151.8" customHeight="1">
       <c r="A33" t="s" s="11">
         <v>39</v>
       </c>
@@ -2214,7 +2202,9 @@
       <c r="C33" s="9">
         <v>3</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="9">
+        <v>20</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -2225,20 +2215,18 @@
         <v>40</v>
       </c>
       <c r="B34" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="9">
         <v>3</v>
       </c>
-      <c r="D34" s="9">
-        <v>20</v>
-      </c>
+      <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" ht="151.8" customHeight="1">
+    <row r="35" ht="97.8" customHeight="1">
       <c r="A35" t="s" s="11">
         <v>41</v>
       </c>
@@ -2286,7 +2274,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" ht="97.8" customHeight="1">
+    <row r="38" ht="295.8" customHeight="1">
       <c r="A38" t="s" s="11">
         <v>44</v>
       </c>
@@ -2294,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -2302,7 +2290,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" ht="151.8" customHeight="1">
+    <row r="39" ht="115.8" customHeight="1">
       <c r="A39" t="s" s="11">
         <v>45</v>
       </c>
@@ -2310,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -2318,7 +2306,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" ht="79.8" customHeight="1">
+    <row r="40" ht="169.8" customHeight="1">
       <c r="A40" t="s" s="11">
         <v>46</v>
       </c>
@@ -2326,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -2334,7 +2322,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" ht="223.8" customHeight="1">
+    <row r="41" ht="151.8" customHeight="1">
       <c r="A41" t="s" s="11">
         <v>47</v>
       </c>
@@ -2350,19 +2338,23 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" ht="115.8" customHeight="1">
+    <row r="42" ht="151.8" customHeight="1">
       <c r="A42" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="8">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9">
+        <v>4</v>
+      </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" ht="277.8" customHeight="1">
+    <row r="43" ht="205.8" customHeight="1">
       <c r="A43" t="s" s="11">
         <v>49</v>
       </c>
@@ -2372,63 +2364,15 @@
       <c r="C43" s="9">
         <v>4</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="D43" s="9">
+        <v>13</v>
+      </c>
+      <c r="E43" s="9">
+        <v>5</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-    </row>
-    <row r="44" ht="151.8" customHeight="1">
-      <c r="A44" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="B44" s="8">
-        <v>4</v>
-      </c>
-      <c r="C44" s="9">
-        <v>4</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" ht="151.8" customHeight="1">
-      <c r="A45" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="B45" s="8">
-        <v>4</v>
-      </c>
-      <c r="C45" s="9">
-        <v>4</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" ht="205.8" customHeight="1">
-      <c r="A46" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="B46" s="8">
-        <v>4</v>
-      </c>
-      <c r="C46" s="9">
-        <v>4</v>
-      </c>
-      <c r="D46" s="9">
-        <v>13</v>
-      </c>
-      <c r="E46" s="9">
-        <v>5</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -128,7 +128,7 @@
     <t>Sadie slipped into the cushioned seat and grabbed Thomas’ hand.</t>
   </si>
   <si>
-    <t>“Tell me about your day!”, she sang.</t>
+    <t>“Tell me about your day!” she sang.</t>
   </si>
   <si>
     <t xml:space="preserve">He looked at her silently and pulled his hand slowly from hers as a puzzled look grew on Sadie’s face. </t>
@@ -164,10 +164,10 @@
     <t>Sadie sat back in her seat.</t>
   </si>
   <si>
-    <t>Thomas continued, “Things have been really picking up at work and I’m not sure that this is the job I want to do anymore.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus, it’s been really overwhelming between working and figuring out if I should change careers and I really feel like I need more time to figure it out.” </t>
+    <t>Thomas continued, “Things have been really picking up at work, and I’m not sure that this is the job I want to do anymore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus, it’s been really overwhelming between working and figuring out if I should change careers, and I really feel like I need more time to figure it out.” </t>
   </si>
   <si>
     <r>
@@ -220,7 +220,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The menus were laminated posters with silly names for all the foods, and since they didn’t want to read through the description, they settled on familiar orders.</t>
+      <t>The menus were laminated posters with silly names for all the foods, and since they didn’t want to read through each item description, they settled on familiar orders.</t>
     </r>
   </si>
   <si>
@@ -307,7 +307,7 @@
     <t>Will you be getting dessert tonight?” he asked.</t>
   </si>
   <si>
-    <t>“Oh no, we’re good, thanks,” Thomas said.</t>
+    <t>“Oh no, we’re good, thanks,” Thomas said blankly.</t>
   </si>
   <si>
     <r>
@@ -332,7 +332,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> stood up, grabbed half of the reuben and shook it at him as she growled, “Don’t follow me, and don’t talk to me anymore!</t>
+      <t xml:space="preserve"> stood up, grabbed half of the reuben, and shook it at him as she growled, “Don’t follow me, and don’t talk to me anymore!</t>
     </r>
   </si>
   <si>
@@ -2032,7 +2032,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" ht="277.8" customHeight="1">
+    <row r="23" ht="295.8" customHeight="1">
       <c r="A23" t="s" s="11">
         <v>29</v>
       </c>

--- a/story_xlsx_files/11.xlsx
+++ b/story_xlsx_files/11.xlsx
@@ -89,7 +89,7 @@
     <t>Thomas had been thinking about breaking up with her for 2 months now.</t>
   </si>
   <si>
-    <t xml:space="preserve">The restaurant he had chosen to meet at was reminiscent of a diner from the 70’s; there was black and white checkerboard tiling on the floor, a long bar in the front, and booths and stools with red, leather upholstery. </t>
+    <t xml:space="preserve">The restaurant he had chosen to meet at was reminiscent of a diner from the 70’s with black and white checkerboard tiling on the floor, a long bar in the front, and booths and stools with red, leather upholstery. </t>
   </si>
   <si>
     <t>A bell chimed as the door swung open, and Sadie entered to find Thomas ruminating at the bar.</t>
@@ -345,7 +345,7 @@
     <t xml:space="preserve">Thomas sat there for awhile surprised at how quickly everything had transpired. </t>
   </si>
   <si>
-    <t>He grabbed his burger and took a bite of it, creating a dry and fishy taste in his mouth.</t>
+    <t>He grabbed his burger and took a bite of it, which created a dry and fishy taste in his mouth.</t>
   </si>
   <si>
     <t xml:space="preserve">He dropped it back on his plate and wondered if the restaurant was responsible for the foul taste. </t>
@@ -2338,7 +2338,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" ht="151.8" customHeight="1">
+    <row r="42" ht="169.8" customHeight="1">
       <c r="A42" t="s" s="11">
         <v>48</v>
       </c>
